--- a/requirements/Russia/Russia_Updated Scrapping Doc_20260109.xlsx
+++ b/requirements/Russia/Russia_Updated Scrapping Doc_20260109.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eversana-my.sharepoint.com/personal/shraddha_deshpande_eversana_com/Documents/2. Updated Scrapping Docs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="360" documentId="13_ncr:1_{F552C380-050B-4527-A2FB-F500395756B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D793D54E-6B7E-4AC5-BED0-23CF567B33E2}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{2122329F-47E2-435A-BBAF-B0206B3B33C1}"/>
+    <workbookView windowWidth="22188" windowHeight="9000" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scrapping Steps" sheetId="5" r:id="rId1"/>
@@ -20,9 +14,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -30,6 +21,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,182 +30,316 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
+  <si>
+    <t>Source Link:</t>
+  </si>
+  <si>
+    <t>http://farmcom.info/site/reestr</t>
+  </si>
+  <si>
+    <t>For Russia we have a web source</t>
+  </si>
+  <si>
+    <t>Click on State resister of prices for Vital and Essential Drug (VED) dated 29.12.2025 (subject to change)</t>
+  </si>
+  <si>
+    <t>Set Moscow region</t>
+  </si>
+  <si>
+    <t>PCID</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Product Group</t>
+  </si>
+  <si>
+    <t>Generic Name</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Ex-Factory Wholesale Price</t>
+  </si>
+  <si>
+    <t>Local Pack Description</t>
+  </si>
   <si>
     <t>LOCAL_PACK_CODE</t>
   </si>
   <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Ebewe Pharma Hes.m.b.H. Nfg. CG - Austria</t>
+  </si>
+  <si>
+    <t>5-Fluorouracil-Ebewe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Fluorouracil </t>
+  </si>
+  <si>
+    <t>15/03/2010</t>
+  </si>
+  <si>
+    <t>RUB</t>
+  </si>
+  <si>
+    <t>concentrate for preparation of solution for infusion 50 mg/ml, 10 ml - ampoules (5) - cardboard boxes</t>
+  </si>
+  <si>
+    <t>9088881324836</t>
+  </si>
+  <si>
+    <t>concentrate for preparation of solution for infusion 50 mg/ml, 10 ml - dark glass bottles - cardboard packs</t>
+  </si>
+  <si>
+    <t>concentrate for preparation of solution for infusion 50 mg/ml, 100 ml - dark glass bottles - cardboard packs</t>
+  </si>
+  <si>
+    <t>concentrate for preparation of solution for infusion 50 mg/ml, 20 ml - dark glass vials - cardboard packs</t>
+  </si>
+  <si>
+    <t>We have a separate list of discontinued list in Russia which needs to be scrapped.</t>
+  </si>
+  <si>
+    <t>Excluded drugs / State Register of Prices for Vital and Essential Drugs (VED)</t>
+  </si>
+  <si>
+    <t>Click on Excluded to scrape the list of discontinued products as shown below:</t>
+  </si>
+  <si>
+    <t>Local Product Name</t>
+  </si>
+  <si>
+    <t>Indication</t>
+  </si>
+  <si>
+    <t>Pack Size</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Pharmacy Purchase Price</t>
+  </si>
+  <si>
+    <t>PPE VAT</t>
+  </si>
+  <si>
+    <t>PPI VAT</t>
+  </si>
+  <si>
+    <t>VAT Percent</t>
+  </si>
+  <si>
     <t>Reimbursable Status</t>
   </si>
   <si>
     <t>Reimbursable Rate</t>
   </si>
   <si>
+    <t>Co-Pay Price</t>
+  </si>
+  <si>
     <t>Copayment Percent</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Product Group</t>
-  </si>
-  <si>
-    <t>Local Product Name</t>
-  </si>
-  <si>
-    <t>Generic Name</t>
-  </si>
-  <si>
-    <t>Indication</t>
-  </si>
-  <si>
-    <t>Pack Size</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>VAT Percent</t>
-  </si>
-  <si>
     <t>Margin Rule</t>
   </si>
   <si>
-    <t>Local Pack Description</t>
-  </si>
-  <si>
     <t>Formulation</t>
   </si>
   <si>
-    <t>http://farmcom.info/site/reestr</t>
-  </si>
-  <si>
-    <t>For Russia we have a web source</t>
-  </si>
-  <si>
-    <t>Set Moscow region</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
     <t>Strength Size</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>RUB</t>
-  </si>
-  <si>
-    <t>Click on State resister of prices for Vital and Essential Drug (VED) dated 29.12.2025 (subject to change)</t>
-  </si>
-  <si>
-    <t>Source Link:</t>
-  </si>
-  <si>
-    <t>Click on Excluded to scrape the list of discontinued products as shown below:</t>
-  </si>
-  <si>
-    <t>PCID</t>
-  </si>
-  <si>
-    <t>Pharmacy Purchase Price</t>
-  </si>
-  <si>
-    <t>Co-Pay Price</t>
-  </si>
-  <si>
     <t>Customized Column 1</t>
   </si>
   <si>
-    <t>5-Fluorouracil-Ebewe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Fluorouracil </t>
-  </si>
-  <si>
-    <t>15/03/2010</t>
-  </si>
-  <si>
-    <t>Ebewe Pharma Hes.m.b.H. Nfg. CG - Austria</t>
-  </si>
-  <si>
-    <t>Ex-Factory Wholesale Price</t>
-  </si>
-  <si>
-    <t>PPE VAT</t>
-  </si>
-  <si>
-    <t>PPI VAT</t>
-  </si>
-  <si>
-    <t>9088881324836</t>
-  </si>
-  <si>
-    <t>concentrate for preparation of solution for infusion 50 mg/ml, 10 ml - ampoules (5) - cardboard boxes</t>
-  </si>
-  <si>
-    <t>concentrate for preparation of solution for infusion 50 mg/ml, 10 ml - dark glass bottles - cardboard packs</t>
-  </si>
-  <si>
-    <t>concentrate for preparation of solution for infusion 50 mg/ml, 100 ml - dark glass bottles - cardboard packs</t>
-  </si>
-  <si>
-    <t>concentrate for preparation of solution for infusion 50 mg/ml, 20 ml - dark glass vials - cardboard packs</t>
-  </si>
-  <si>
     <t>Intelence</t>
   </si>
   <si>
     <t>Etravirine</t>
+  </si>
+  <si>
+    <t>26/06/2014</t>
+  </si>
+  <si>
+    <t>24/12/2025</t>
+  </si>
+  <si>
+    <t>tablets 200 mg, 60 pcs. - vials (1) -
+cardboard packs</t>
+  </si>
+  <si>
+    <t>29/07/2020</t>
   </si>
   <si>
     <t>tablets, 200 mg, 60 pcs. - vials (1) -
 cardboard packs</t>
-  </si>
-  <si>
-    <t>tablets 200 mg, 60 pcs. - vials (1) -
-cardboard packs</t>
-  </si>
-  <si>
-    <t>24/12/2025</t>
-  </si>
-  <si>
-    <t>26/06/2014</t>
-  </si>
-  <si>
-    <t>29/07/2020</t>
-  </si>
-  <si>
-    <t>We have a separate list of discontinued list in Russia which needs to be scrapped.</t>
-  </si>
-  <si>
-    <t>Excluded drugs / State Register of Prices for Vital and Essential Drugs (VED)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,7 +347,42 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,36 +390,11 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,12 +403,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -281,81 +604,360 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{A07943BD-42A5-45FE-904E-881DFE31C5CC}"/>
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Hyperlink 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -371,27 +973,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5748789-5CC0-9FB7-180A-0A1EBF5C9E5F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="184151" y="5041901"/>
-          <a:ext cx="11036300" cy="2343616"/>
+          <a:off x="184150" y="5190490"/>
+          <a:ext cx="10949940" cy="2326640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -415,27 +1011,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA8A726A-4210-F227-9595-20772CCFAA19}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="1289051"/>
-          <a:ext cx="8668591" cy="2946399"/>
+          <a:off x="617220" y="1280160"/>
+          <a:ext cx="8574405" cy="2926080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -464,21 +1054,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8041779-9DB6-F1A0-FE07-2E3D022E2731}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="628650" y="2197100"/>
-          <a:ext cx="1581150" cy="292100"/>
+          <a:off x="636270" y="2183130"/>
+          <a:ext cx="1654810" cy="289560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -530,21 +1114,15 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B880214-E265-C296-F51E-5525A7324B02}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5124450" y="3441700"/>
-          <a:ext cx="914400" cy="241300"/>
+          <a:off x="4933315" y="3418840"/>
+          <a:ext cx="834390" cy="238760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -596,21 +1174,15 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03067933-454E-3F01-A484-A39FC39C1608}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1244600" y="5353050"/>
-          <a:ext cx="596900" cy="241300"/>
+          <a:off x="1252220" y="5316220"/>
+          <a:ext cx="582930" cy="240030"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -662,23 +1234,17 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71191210-C412-EBF9-0140-2A92487A0D1E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="11" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1695450" y="4946650"/>
-          <a:ext cx="9525" cy="209550"/>
+          <a:off x="1822450" y="5096510"/>
+          <a:ext cx="9525" cy="207010"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -717,21 +1283,15 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="TextBox 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17720DB3-A435-66EB-B82A-E4549CCD356E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1206500" y="4705350"/>
-          <a:ext cx="996950" cy="241300"/>
+          <a:off x="1214120" y="4856480"/>
+          <a:ext cx="1070610" cy="240030"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -793,21 +1353,15 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C1130C-741B-4113-B5E3-999F1761E6AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="Rectangle 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2984500" y="5359400"/>
-          <a:ext cx="349250" cy="196850"/>
+          <a:off x="2964180" y="5322570"/>
+          <a:ext cx="328930" cy="195580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -859,21 +1413,15 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectangle 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41073FCB-0DA3-4492-9652-1824B9412223}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="Rectangle 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4343400" y="5168900"/>
-          <a:ext cx="1257300" cy="228600"/>
+          <a:off x="4175760" y="5316220"/>
+          <a:ext cx="1233805" cy="227330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -925,21 +1473,15 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F64786F-8873-47F8-9842-BDA200B48F3F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="Rectangle 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6026150" y="5340350"/>
-          <a:ext cx="4051300" cy="222250"/>
+          <a:off x="5755005" y="5486400"/>
+          <a:ext cx="4246245" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -991,21 +1533,15 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="TextBox 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A773F9-5AEB-48F8-8706-D938FE2FDA16}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="18" name="TextBox 17"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2647950" y="4692650"/>
-          <a:ext cx="996950" cy="241300"/>
+          <a:off x="2729230" y="4843780"/>
+          <a:ext cx="748030" cy="240030"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1044,6 +1580,7 @@
             <a:rPr lang="en-US" sz="1000"/>
             <a:t>Generic Name</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1062,21 +1599,15 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{770838C0-D027-49AE-BBD9-D7A49C5F279E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3136900" y="4953000"/>
-          <a:ext cx="9525" cy="209550"/>
+          <a:off x="3172460" y="5102860"/>
+          <a:ext cx="0" cy="207010"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1115,21 +1646,15 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03604CBB-83C3-4666-86B3-6B53A8CE3988}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4946650" y="4933950"/>
-          <a:ext cx="0" cy="215900"/>
+          <a:off x="4755515" y="5083810"/>
+          <a:ext cx="0" cy="214630"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1168,21 +1693,15 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="TextBox 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6331A747-FA16-4489-B6B7-0F438F53C458}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="22" name="TextBox 21"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4413250" y="4686300"/>
-          <a:ext cx="1066800" cy="241300"/>
+          <a:off x="4245610" y="4837430"/>
+          <a:ext cx="1043305" cy="240030"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1244,21 +1763,15 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A3B3B43-1F0A-46B2-B2C9-EFA968A993EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7404100" y="4921250"/>
-          <a:ext cx="0" cy="412750"/>
+          <a:off x="7110730" y="5071110"/>
+          <a:ext cx="0" cy="410210"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1297,21 +1810,15 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="TextBox 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{024479DC-2FB3-4954-A189-1D3AF07D6E3B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="26" name="TextBox 25"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6705600" y="4705350"/>
-          <a:ext cx="1397000" cy="215900"/>
+          <a:off x="6434455" y="4856480"/>
+          <a:ext cx="1382395" cy="214630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1373,21 +1880,15 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Rectangle 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A7A44CD-466C-4B6B-A6B2-49FE03C066D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="27" name="Rectangle 26"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6273800" y="5765800"/>
-          <a:ext cx="444500" cy="171450"/>
+          <a:off x="6002655" y="5909310"/>
+          <a:ext cx="444500" cy="170180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1439,21 +1940,15 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E434A7B-251B-45A1-AEBA-CE63936AA974}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6127750" y="4629150"/>
-          <a:ext cx="184150" cy="1117600"/>
+          <a:off x="5856605" y="4780280"/>
+          <a:ext cx="184150" cy="1109980"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1492,21 +1987,15 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="TextBox 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDDF531E-5BC5-4398-847B-7D9421E250DE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="31" name="TextBox 30"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5518150" y="4260850"/>
-          <a:ext cx="1485900" cy="349250"/>
+          <a:off x="5327015" y="4414520"/>
+          <a:ext cx="1405890" cy="346710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1568,21 +2057,15 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Rectangle 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB4A039-BE59-405A-82BC-97D4C8671AE9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="32" name="Rectangle 31"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10096500" y="5226050"/>
-          <a:ext cx="1098550" cy="673100"/>
+          <a:off x="10020300" y="5190490"/>
+          <a:ext cx="1113790" cy="668020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1634,21 +2117,15 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Oval 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7CB364D-571B-2DFA-F871-EBFF43DF70DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="33" name="Oval 32"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10090150" y="5708650"/>
-          <a:ext cx="527050" cy="152400"/>
+          <a:off x="10013950" y="5669280"/>
+          <a:ext cx="534670" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1700,21 +2177,15 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80C319B-D4F2-4401-B279-90E6C7F372AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10287000" y="5092700"/>
-          <a:ext cx="6350" cy="596900"/>
+          <a:off x="10218420" y="5058410"/>
+          <a:ext cx="6350" cy="593090"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1753,21 +2224,15 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="TextBox 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72DFF825-BE24-4E23-BED0-4784C745D8A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="36" name="TextBox 35"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9906000" y="4908550"/>
-          <a:ext cx="787400" cy="184150"/>
+          <a:off x="9829800" y="4875530"/>
+          <a:ext cx="795020" cy="182880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1825,21 +2290,15 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Rectangle 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64E7ECB7-11B0-62FE-CD60-16F74D8705C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="37" name="Rectangle 36"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10814050" y="5632450"/>
-          <a:ext cx="317500" cy="101600"/>
+          <a:off x="10753090" y="5594350"/>
+          <a:ext cx="317500" cy="100330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1891,21 +2350,15 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95B7699D-01BF-F61C-922D-C4A20A1A7573}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11137900" y="5670550"/>
-          <a:ext cx="330200" cy="0"/>
+          <a:off x="11076940" y="5632450"/>
+          <a:ext cx="337820" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1944,21 +2397,15 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="TextBox 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985E331B-2C49-4D3D-85A0-F06C1B56BED3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="41" name="TextBox 40"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11461750" y="5575300"/>
-          <a:ext cx="1384300" cy="203200"/>
+          <a:off x="11408410" y="5537200"/>
+          <a:ext cx="1399540" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2007,7 +2454,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2023,27 +2470,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6677182-DF6C-4C99-B154-26FCDAA15C09}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609601" y="11944350"/>
-          <a:ext cx="10553700" cy="2943962"/>
+          <a:off x="617220" y="1621790"/>
+          <a:ext cx="10474325" cy="2923540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2065,21 +2506,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F2837E-73DD-474D-A5F3-7037B5510EA5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1187450" y="12052300"/>
-          <a:ext cx="438150" cy="177800"/>
+          <a:off x="1195070" y="1728470"/>
+          <a:ext cx="412115" cy="176530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2131,21 +2566,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCEE611E-6E38-41B2-9F18-EC0117FD9239}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2343150" y="12052300"/>
-          <a:ext cx="438150" cy="177800"/>
+          <a:off x="2453640" y="1728470"/>
+          <a:ext cx="438150" cy="176530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2197,21 +2626,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5C0B26E-D328-41EA-80B9-5D8D0162F8EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3524250" y="12052300"/>
-          <a:ext cx="1003300" cy="196850"/>
+          <a:off x="3429635" y="1728470"/>
+          <a:ext cx="1003300" cy="195580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2263,21 +2686,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4164E2E8-0A14-4F82-99B1-11A15F8D8F94}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4845050" y="12369800"/>
-          <a:ext cx="1574800" cy="279400"/>
+          <a:off x="4808220" y="2043430"/>
+          <a:ext cx="1626235" cy="278130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2329,21 +2746,15 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED497F13-2267-42F1-8909-63F4BCD792C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5080000" y="11753850"/>
-          <a:ext cx="0" cy="615950"/>
+          <a:off x="5043170" y="1432560"/>
+          <a:ext cx="0" cy="610870"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2382,21 +2793,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32771C5C-FDC8-4439-9B58-449A470725EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4679950" y="622300"/>
-          <a:ext cx="863600" cy="450850"/>
+          <a:off x="4636135" y="984250"/>
+          <a:ext cx="838835" cy="448310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2435,6 +2840,7 @@
             <a:rPr lang="en-US" sz="1000"/>
             <a:t>Local pack Description</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2453,21 +2859,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Oval 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C24AA94-41EF-482B-80FD-97DCC19B6752}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="Oval 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5492750" y="1790700"/>
-          <a:ext cx="984250" cy="158750"/>
+          <a:off x="5424170" y="2145030"/>
+          <a:ext cx="959485" cy="157480"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2519,22 +2919,16 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{150F742E-87C6-4152-8D28-4EF9CFF2A829}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="9" idx="6"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6477000" y="1870075"/>
+          <a:off x="6383655" y="2223135"/>
           <a:ext cx="298450" cy="3175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2574,21 +2968,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="TextBox 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F925CCAA-81D4-4E83-9E6B-7499F1454820}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6743700" y="12477750"/>
-          <a:ext cx="1136650" cy="171450"/>
+          <a:off x="6758305" y="2151380"/>
+          <a:ext cx="1209040" cy="170180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2650,21 +3038,15 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4FA3E3-215E-4887-A98A-5A9D674086D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2616200" y="850900"/>
-          <a:ext cx="76200" cy="501650"/>
+          <a:off x="2593340" y="1211580"/>
+          <a:ext cx="76200" cy="497840"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2703,21 +3085,15 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4072107C-E079-4510-A4EA-121CD065DE25}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3813175" y="11772900"/>
-          <a:ext cx="3175" cy="273050"/>
+          <a:off x="3718560" y="1451610"/>
+          <a:ext cx="3175" cy="270510"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2756,21 +3132,15 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D7BF439-6633-400B-8298-B6D4947F406E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1400175" y="11779250"/>
-          <a:ext cx="3175" cy="273050"/>
+          <a:off x="1381760" y="1457960"/>
+          <a:ext cx="3175" cy="270510"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2809,21 +3179,15 @@
       <xdr:row>65</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="TextBox 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D789444B-50DA-4F9E-9B78-45BD1668056D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="16" name="TextBox 15"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4692650" y="11290300"/>
-          <a:ext cx="863600" cy="450850"/>
+          <a:off x="4648835" y="11578590"/>
+          <a:ext cx="838835" cy="448310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2862,6 +3226,7 @@
             <a:rPr lang="en-US" sz="1000"/>
             <a:t>Local pack Description</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2880,21 +3245,15 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="TextBox 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{040DB1BE-D857-4B75-B800-C3E4F0A69C95}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="17" name="TextBox 16"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4845050" y="11442700"/>
-          <a:ext cx="863600" cy="450850"/>
+          <a:off x="4776470" y="11729720"/>
+          <a:ext cx="863600" cy="448310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2933,6 +3292,7 @@
             <a:rPr lang="en-US" sz="1000"/>
             <a:t>Local pack Description</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2951,21 +3311,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="TextBox 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39EE35D7-884C-445D-8906-3184100458E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="18" name="TextBox 17"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3238500" y="850900"/>
-          <a:ext cx="1085850" cy="228600"/>
+          <a:off x="3215640" y="1211580"/>
+          <a:ext cx="1064895" cy="227330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3027,21 +3381,15 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="TextBox 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6E2585-5510-47F7-8B0F-69CFBFD71D06}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="19" name="TextBox 18"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2070100" y="622300"/>
-          <a:ext cx="1085850" cy="228600"/>
+          <a:off x="2064385" y="984250"/>
+          <a:ext cx="1068705" cy="227330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3103,21 +3451,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="TextBox 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2167A8F7-5AA6-4D02-B3C4-38A8EB8BCFE4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="21" name="TextBox 20"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="914400" y="857250"/>
-          <a:ext cx="1085850" cy="228600"/>
+          <a:off x="922020" y="1217930"/>
+          <a:ext cx="1072515" cy="227330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3156,6 +3498,7 @@
             <a:rPr lang="en-US" sz="1000"/>
             <a:t>Product Group</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3174,21 +3517,15 @@
       <xdr:row>68</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Rectangle 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1085DB20-9D5B-4209-ADD9-77E24319DE0E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="22" name="Rectangle 21"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3524250" y="12052300"/>
-          <a:ext cx="1003300" cy="196850"/>
+          <a:off x="3480435" y="12335510"/>
+          <a:ext cx="1003300" cy="195580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3240,21 +3577,15 @@
       <xdr:row>69</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Rectangle 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69A3B060-0978-4FFC-89CB-6F5B366CC2AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="23" name="Rectangle 22"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3676650" y="12204700"/>
-          <a:ext cx="1003300" cy="196850"/>
+          <a:off x="3632835" y="12486640"/>
+          <a:ext cx="1003300" cy="195580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3306,21 +3637,15 @@
       <xdr:row>70</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Rectangle 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63483220-7BE4-452A-9CF9-49A96B317EB4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="24" name="Rectangle 23"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3829050" y="12357100"/>
-          <a:ext cx="1003300" cy="196850"/>
+          <a:off x="3785235" y="12637770"/>
+          <a:ext cx="978535" cy="195580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3372,21 +3697,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Rectangle 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D06FFBE-BCE3-0403-758E-C54A1D84B460}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="25" name="Rectangle 24"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10039350" y="1358900"/>
-          <a:ext cx="901700" cy="228600"/>
+          <a:off x="9952355" y="1715770"/>
+          <a:ext cx="909320" cy="227330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3438,21 +3757,15 @@
       <xdr:row>67</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{726C293C-3655-4D58-B1AB-C5AE6D96B8BD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3813175" y="11772900"/>
-          <a:ext cx="3175" cy="273050"/>
+          <a:off x="3769360" y="12058650"/>
+          <a:ext cx="3175" cy="270510"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3491,21 +3804,15 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2E82099-79C0-07CA-F11D-6B58F6D40635}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10477500" y="1066800"/>
-          <a:ext cx="0" cy="279400"/>
+          <a:off x="10390505" y="1426210"/>
+          <a:ext cx="0" cy="276860"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3544,21 +3851,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="TextBox 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F383CDA-ECA5-4FFE-9ADE-9BEF355125E5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="30" name="TextBox 29"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10096500" y="863600"/>
-          <a:ext cx="768350" cy="203200"/>
+          <a:off x="10009505" y="1224280"/>
+          <a:ext cx="775970" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3597,6 +3898,7 @@
             <a:rPr lang="en-US" sz="1000"/>
             <a:t>End Date</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3615,21 +3917,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Rectangle 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0C4812F-EBC0-1967-D4BE-E6EE07C5CA5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="32" name="Rectangle 31"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8921750" y="1651000"/>
-          <a:ext cx="1104900" cy="374650"/>
+          <a:off x="8819515" y="2006600"/>
+          <a:ext cx="1120140" cy="370840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3681,21 +3977,15 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Oval 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7589573-3EDF-87DB-748A-230E36A51646}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="33" name="Oval 32"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9277350" y="1689100"/>
-          <a:ext cx="463550" cy="139700"/>
+          <a:off x="9175115" y="2043430"/>
+          <a:ext cx="471170" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3747,21 +4037,15 @@
       <xdr:row>69</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F7F6A51-BD3E-4486-9B26-5F39FB15F442}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5080000" y="11753850"/>
-          <a:ext cx="0" cy="615950"/>
+          <a:off x="5011420" y="12039600"/>
+          <a:ext cx="0" cy="610870"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3800,23 +4084,17 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6998C0A6-53A6-9050-B372-E8F08D2E2066}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="33" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9509125" y="1104900"/>
-          <a:ext cx="3175" cy="584200"/>
+          <a:off x="9414510" y="1463040"/>
+          <a:ext cx="3175" cy="580390"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3855,21 +4133,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="TextBox 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BA8E983-C775-42DC-BB36-D91A4ABC8149}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="37" name="TextBox 36"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9023350" y="673100"/>
-          <a:ext cx="977900" cy="425450"/>
+          <a:off x="8921115" y="1035050"/>
+          <a:ext cx="993140" cy="422910"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3931,21 +4203,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Rectangle 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0A55880-53D2-317D-BECE-5FB6BB8D89B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="38" name="Rectangle 37"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9055100" y="1822450"/>
-          <a:ext cx="469900" cy="107950"/>
+          <a:off x="8952865" y="2176780"/>
+          <a:ext cx="477520" cy="106680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3997,21 +4263,15 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88620273-AA31-45F9-9870-53F28ACC7873}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8432800" y="1028700"/>
-          <a:ext cx="657225" cy="768350"/>
+          <a:off x="8322945" y="1388110"/>
+          <a:ext cx="664845" cy="763270"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4050,21 +4310,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="TextBox 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB7D718-EE1F-4D22-91EB-5B4FE7164756}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="41" name="TextBox 40"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8013700" y="819150"/>
-          <a:ext cx="768350" cy="203200"/>
+          <a:off x="7896225" y="1179830"/>
+          <a:ext cx="783590" cy="201930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4103,6 +4357,7 @@
             <a:rPr lang="en-US" sz="1000"/>
             <a:t>Start Date</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4154,7 +4409,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4187,26 +4442,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4239,23 +4477,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office 2013 - 2022">
@@ -4397,521 +4618,456 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5350367-0CC8-4FE3-9712-ED56C52AB2AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:C35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD69"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6328125" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="10.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="10.7222222222222" customWidth="1"/>
+    <col min="4" max="4" width="15.9074074074074" customWidth="1"/>
+    <col min="5" max="5" width="18.2685185185185" customWidth="1"/>
+    <col min="6" max="6" width="17.6296296296296" customWidth="1"/>
+    <col min="7" max="7" width="17.5462962962963" customWidth="1"/>
+    <col min="11" max="11" width="11.7222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
+    <row r="2" spans="2:3">
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="1"/>
+    <row r="35" spans="2:2">
+      <c r="B35" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" tooltip="http://farmcom.info/site/reestr" xr:uid="{F1DC27C1-0AEA-480E-8583-F96EF108E5E4}"/>
+    <hyperlink ref="C2" r:id="rId2" display="http://farmcom.info/site/reestr" tooltip="http://farmcom.info/site/reestr"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E124517-E591-4930-8248-E86592665848}">
-  <dimension ref="A1:BA5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AK5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="3" max="3" width="37.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44444444444444" customWidth="1"/>
+    <col min="2" max="2" width="7.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="40.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="20.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="11.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="8.66666666666667" customWidth="1"/>
+    <col min="8" max="8" width="24.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="51.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="19.2222222222222" customWidth="1"/>
+    <col min="11" max="11" width="51.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:10">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:37">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="W1" s="5" t="s">
+      <c r="H2" s="1">
+        <v>531.51</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>31</v>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1">
+        <v>106.39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="8">
+        <v>9088881314301</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="7" t="s">
+    <row r="4" spans="2:10">
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1">
+        <v>793.84</v>
+      </c>
+      <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="6">
-        <v>531.51</v>
-      </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="7"/>
-      <c r="AV2" s="7"/>
-      <c r="AW2" s="7"/>
-      <c r="AX2" s="7"/>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="7"/>
-      <c r="BA2" s="7"/>
+      <c r="J4" s="8">
+        <v>9088881314325</v>
+      </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="B3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="6">
-        <v>106.39</v>
-      </c>
-      <c r="V3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y3" s="11">
-        <v>9088881314301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="B4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="6">
-        <v>793.84</v>
-      </c>
-      <c r="V4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y4" s="11">
-        <v>9088881314325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="B5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="6">
+    <row r="5" spans="2:10">
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1">
         <v>182.44</v>
       </c>
-      <c r="V5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y5" s="11">
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="8">
         <v>9088881314318</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61479E6-2132-49AD-8DEB-EBA1FF6C7EFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="10.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10.4537037037037" customWidth="1"/>
+    <col min="3" max="3" width="13.2685185185185" customWidth="1"/>
+    <col min="4" max="4" width="16.5462962962963" customWidth="1"/>
+    <col min="5" max="5" width="19.4537037037037" customWidth="1"/>
+    <col min="6" max="6" width="19.5462962962963" customWidth="1"/>
+    <col min="7" max="7" width="18.8148148148148" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
-        <v>52</v>
+    <row r="3" spans="2:2">
+      <c r="B3" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
-        <v>27</v>
+    <row r="4" spans="2:2">
+      <c r="B4" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://farmcom.info/site/reestr?vw=excl" xr:uid="{05935776-D9B6-48A7-A2CA-3EADED2AEC80}"/>
+    <hyperlink ref="B3" r:id="rId2" display="Excluded drugs / State Register of Prices for Vital and Essential Drugs (VED)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113BC311-215A-4743-84E1-38ED902C42FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3611111111111" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="12.1759259259259" customWidth="1"/>
+    <col min="9" max="10" width="10.4537037037037" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
+    <col min="13" max="13" width="21.5462962962963" customWidth="1"/>
+    <col min="22" max="22" width="19.0925925925926" customWidth="1"/>
+    <col min="24" max="24" width="11.4537037037037" customWidth="1"/>
+    <col min="25" max="25" width="17.8148148148148" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:26">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="J1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="Q1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="R1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U1" s="5" t="s">
+      <c r="S1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Z1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="2:25">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
         <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L2">
         <v>17486.84</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y2" s="12">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="4">
         <v>4601808010282</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B3" s="7" t="s">
-        <v>23</v>
+    <row r="3" spans="2:25">
+      <c r="B3" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
         <v>50</v>
@@ -4920,19 +5076,20 @@
         <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L3">
         <v>17486.84</v>
       </c>
       <c r="V3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y3" s="12">
+        <v>51</v>
+      </c>
+      <c r="Y3" s="4">
         <v>4601808010282</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>